--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1324.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1324.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.051044100429078</v>
+        <v>0.9511678814888</v>
       </c>
       <c r="B1">
-        <v>2.521568169104525</v>
+        <v>1.741506457328796</v>
       </c>
       <c r="C1">
-        <v>4.985239920705691</v>
+        <v>6.592920780181885</v>
       </c>
       <c r="D1">
-        <v>2.290290348316613</v>
+        <v>3.345165967941284</v>
       </c>
       <c r="E1">
-        <v>1.232626004585666</v>
+        <v>1.507930874824524</v>
       </c>
     </row>
   </sheetData>
